--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>68,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>67,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>68,85%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,78; 79,93</t>
+          <t>28,54; 81,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,89; 83,05</t>
+          <t>29,49; 90,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,02; 81,72</t>
+          <t>24,37; 85,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,75; 84,28</t>
+          <t>20,53; 78,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,61; 79,28</t>
+          <t>59,73; 86,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,94; 77,06</t>
+          <t>58,45; 83,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,26; 80,11</t>
+          <t>50,84; 81,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,61; 78,04</t>
+          <t>47,03; 79,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,52; 75,79</t>
+          <t>46,7; 81,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46,19; 81,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40,31; 77,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34,97; 73,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>56,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,26%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,71; 68,53</t>
+          <t>54,39; 71,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,41; 63,44</t>
+          <t>54,68; 72,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,41; 66,98</t>
+          <t>55,94; 72,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 56,38</t>
+          <t>52,57; 70,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 54,24</t>
+          <t>43,67; 58,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,09; 53,86</t>
+          <t>42,7; 57,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,71; 60,82</t>
+          <t>42,61; 57,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,5; 57,25</t>
+          <t>44,05; 59,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,8; 60,25</t>
+          <t>50,92; 62,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>50,49; 62,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51,35; 63,11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50,57; 62,19</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>48,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,73; 65,26</t>
+          <t>47,84; 67,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,85; 67,74</t>
+          <t>46,06; 66,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 69,25</t>
+          <t>48,93; 67,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 38,57</t>
+          <t>46,66; 66,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 38,64</t>
+          <t>24,48; 39,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 40,78</t>
+          <t>27,93; 42,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,07; 49,24</t>
+          <t>26,22; 41,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,8; 50,25</t>
+          <t>32,21; 49,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,3; 51,9</t>
+          <t>37,93; 49,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38,82; 50,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39,68; 51,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>41,89; 54,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,4; 66,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,01; 64,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,87; 67,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,91; 51,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,0; 57,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,96; 57,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>61,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61,49%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61,96%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57,76%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54,38; 66,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54,52; 67,83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53,3; 67,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48,16; 65,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41,21; 50,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 51,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40,27; 50,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44,66; 54,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 57,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 57,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 58,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48,37; 58,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>79687</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70246</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>68387</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91030</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97605</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>80397</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75687</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102004</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>177292</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>150643</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>144074</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>193034</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36781; 105614</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30461; 93150</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27323; 96031</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36464; 139533</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>76822; 111749</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>65219; 92856</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>57127; 91492</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72369; 122948</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>120248; 208604</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>99251; 175266</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>90491; 174411</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>115929; 245148</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>266855</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>232766</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>251982</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>307032</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>229999</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>178356</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>182292</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>249224</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>496854</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>411121</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>434274</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>556256</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>228907; 301025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>201180; 265565</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>219108; 283675</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>265125; 354851</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>197202; 264096</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>153025; 205359</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>155407; 208238</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>213419; 289417</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>444222; 547394</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>366682; 452633</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>388347; 477349</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>500011; 614865</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>190842</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157203</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>161214</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>198426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>129140</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>117819</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>107206</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>159152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>319982</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>275022</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>268419</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>357578</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>157642; 223159</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>127688; 183243</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133825; 185543</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>163724; 232070</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100594; 161028</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>94028; 144050</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>84839; 133140</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126962; 195428</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>280837; 366477</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>238303; 310529</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>236923; 305749</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>312038; 403023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>537384</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>460214</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>481583</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>596489</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>456744</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>376572</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>365184</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>510379</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>994128</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>836786</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>846767</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1106868</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>478162; 587306</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>408061; 507693</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>414285; 528097</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>497349; 672419</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>408472; 504911</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>331584; 414059</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>322382; 404059</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>461092; 561232</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>916579; 1070415</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>775386; 901186</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>773245; 918775</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>998837; 1204691</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
